--- a/output/2015_tax_rates_by_CEX_states.xlsx
+++ b/output/2015_tax_rates_by_CEX_states.xlsx
@@ -1989,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <v>4.5812844938753345</v>
+        <v>9.603478434330045</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -2007,13 +2007,13 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>5.466794762567854</v>
+        <v>2.2017940289978917</v>
       </c>
       <c r="J10">
         <v>0.0</v>
       </c>
       <c r="K10">
-        <v>6.378248492320681</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
         <v>3.5786464733302275</v>
@@ -2028,40 +2028,40 @@
         <v>6.70564619791975</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>4.572825479844843</v>
       </c>
       <c r="Q10">
         <v>4.429108107621149</v>
       </c>
       <c r="R10">
-        <v>8.2</v>
+        <v>2.843261580753183</v>
       </c>
       <c r="S10">
-        <v>5.999999999999999</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="T10">
-        <v>8.154190254587387</v>
+        <v>2.395967990610304</v>
       </c>
       <c r="U10">
-        <v>3.592934305592377</v>
+        <v>2.066837232407834</v>
       </c>
       <c r="V10">
-        <v>3.0850400632157133</v>
+        <v>0.0</v>
       </c>
       <c r="W10">
-        <v>5.380703506464425</v>
+        <v>2.1671201072813897</v>
       </c>
       <c r="X10">
-        <v>5.165475366205847</v>
+        <v>4.137128678467276</v>
       </c>
       <c r="Y10">
-        <v>7.205</v>
+        <v>6.202875002252188</v>
       </c>
       <c r="Z10">
-        <v>7.07</v>
+        <v>2.451446265356708</v>
       </c>
       <c r="AA10">
-        <v>5.098700410027001</v>
+        <v>0.0</v>
       </c>
       <c r="AB10">
         <v>0.17452767103119346</v>
@@ -2085,7 +2085,7 @@
         <v>0.0</v>
       </c>
       <c r="AI10">
-        <v>5.495083266247136</v>
+        <v>5.719589512720284</v>
       </c>
       <c r="AJ10">
         <v>0.3860360195721614</v>
@@ -2094,16 +2094,16 @@
         <v>2.674476913137594</v>
       </c>
       <c r="AL10">
-        <v>7.550203160270879</v>
+        <v>3.0409029345372454</v>
       </c>
       <c r="AM10">
         <v>0.0</v>
       </c>
       <c r="AN10">
-        <v>5.458185636957511</v>
+        <v>2.1983266368262413</v>
       </c>
       <c r="AO10">
-        <v>6.999999999999999</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="AP10">
         <v>0.0</v>
@@ -2112,19 +2112,19 @@
         <v>5.019120230830016</v>
       </c>
       <c r="AR10">
-        <v>5.787521974924776</v>
+        <v>4.591061900435251</v>
       </c>
       <c r="AS10">
-        <v>6.930346116326179</v>
+        <v>3.032329457853188</v>
       </c>
       <c r="AT10">
-        <v>0.0</v>
+        <v>1.6634860761918413</v>
       </c>
       <c r="AU10">
-        <v>5.28600312475065</v>
+        <v>2.128978793393237</v>
       </c>
       <c r="AV10">
-        <v>0.16860539341228434</v>
+        <v>0.0</v>
       </c>
       <c r="AW10">
         <v>7.411064358538111</v>
@@ -2133,13 +2133,13 @@
         <v>3.5273779635583034</v>
       </c>
       <c r="AY10">
-        <v>4.674755206416291</v>
+        <v>4.512139347405864</v>
       </c>
       <c r="AZ10">
         <v>2.8125281909649917</v>
       </c>
       <c r="BA10">
-        <v>6.551166504938084</v>
+        <v>8.481848004303611</v>
       </c>
     </row>
     <row r="11" spans="1:53">
